--- a/results/BASE/deepseek-coder-7b-instruct-v1.5_cot_64/func_job/job_result.xlsx
+++ b/results/BASE/deepseek-coder-7b-instruct-v1.5_cot_64/func_job/job_result.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
     </row>
